--- a/Release Documents/Commands sheet.xlsx
+++ b/Release Documents/Commands sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitKachhwaha\Desktop\adm_client\Release Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE36717B-C746-4CAF-8609-5AB2DB22A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7223432-4826-425A-85D4-E7B5C1D11EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheat Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Demo 1- test tables" sheetId="2" r:id="rId2"/>
+    <sheet name="lab server test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Project</t>
   </si>
@@ -140,6 +141,89 @@
   </si>
   <si>
     <t>A93COM.F92200066</t>
+  </si>
+  <si>
+    <t>count Row Query</t>
+  </si>
+  <si>
+    <t>NIK.CPCUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIK.DPF  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIK.EMPL1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIK.EMPL2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIK.EMPL3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIK.EMPPF </t>
+  </si>
+  <si>
+    <t>NIK.EMPS</t>
+  </si>
+  <si>
+    <t>Insert cmnd for testing</t>
+  </si>
+  <si>
+    <t>CNUMBER       10S</t>
+  </si>
+  <si>
+    <t>CNAME         15A</t>
+  </si>
+  <si>
+    <t>EMAIL         20A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNUMBER ,
+CNAME  ,
+EMAIL </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPID ,
+NAME  ,
+EMAIL ,
+NUMBER,
+AGE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME  , 
+SALARY </t>
+  </si>
+  <si>
+    <t>NAME1 ,
+MOBILE</t>
+  </si>
+  <si>
+    <t>1 time</t>
+  </si>
+  <si>
+    <t>2 time</t>
+  </si>
+  <si>
+    <t>3 time</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop query </t>
+  </si>
+  <si>
+    <t>count Row Query - postgres</t>
   </si>
 </sst>
 </file>
@@ -217,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -364,11 +448,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,72 +478,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +491,91 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -767,58 +879,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -845,298 +957,298 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="26" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F8, " ", E8)</f>
         <v>java -jar -Dspring.config.location=&lt;configuration path with application.property&gt; &lt;jar path with jar Name&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="14"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="14"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="23">
         <v>8080</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="26" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F21," ", E21)</f>
         <v>java -jar -Dspring.config.location=/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.1.jar</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="14"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="14"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F34" s="4" t="s">
@@ -1174,100 +1286,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3915056-704F-4C90-96BA-CAC16306B337}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="C2" t="str">
+        <f>CONCATENATE("( select count(*) from ", "ADM.", RIGHT(A2,LEN(A2)-7), " ) as table",ROW()-1,"_rows ," )</f>
+        <v>( select count(*) from ADM.F55250 ) as table1_rows ,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="0">CONCATENATE("( select count(*) from ", "ADM.", RIGHT(A3,LEN(A3)-7), " ) as table",ROW()-1,"_rows ," )</f>
+        <v>( select count(*) from ADM.F55XTML ) as table2_rows ,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="8">
         <v>65535</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F9200 ) as table3_rows ,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F0005 ) as table4_rows ,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F55EM1 ) as table5_rows ,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="31" t="s">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F55EM2 ) as table6_rows ,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F9200 ) as table8_rows ,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.F922000 ) as table9_rows ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>_xlfn.CONCAT("select ", C2:C10 )</f>
+        <v>select ( select count(*) from ADM.F55250 ) as table1_rows ,( select count(*) from ADM.F55XTML ) as table2_rows ,( select count(*) from ADM.F9200 ) as table3_rows ,( select count(*) from ADM.F0005 ) as table4_rows ,( select count(*) from ADM.F55EM1 ) as table5_rows ,( select count(*) from ADM.F55EM2 ) as table6_rows ,( select count(*) from ADM.F9200 ) as table8_rows ,( select count(*) from ADM.F922000 ) as table9_rows ,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCAE70E-9451-41DC-B20B-1F3295A4C989}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7">
+        <v>37</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("( select count(*) from ", "ADM.", RIGHT(A2,LEN(A2)-FIND(".",A2)), " ) as table",ROW()-1,"_rows ," )</f>
+        <v>( select count(*) from ADM.CPCUST ) as table1_rows ,</v>
+      </c>
+      <c r="D2" s="13" t="str">
+        <f>_xlfn.CONCAT( "insert into ", A2,  " ( ",E2," ) values ( 254 , 'test' , 'test@123.com'); ")</f>
+        <v xml:space="preserve">insert into NIK.CPCUST ( CNUMBER ,
+CNAME  ,
+EMAIL  ) values ( 254 , 'test' , 'test@123.com'); </v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f>CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", A2, " union all "  )</f>
+        <v xml:space="preserve">select count(*)  as table1_rows  from NIK.CPCUST union all </v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f>_xlfn.CONCAT( "delete from ", A2,  " where Cnumber = 254 ;")</f>
+        <v>delete from NIK.CPCUST where Cnumber = 254 ;</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
+        <v>37</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C7" si="0">CONCATENATE("( select count(*) from ", "ADM.", RIGHT(A3,LEN(A3)-FIND(".",A3)), " ) as table",ROW()-1,"_rows ," )</f>
+        <v>( select count(*) from ADM.DPF   ) as table2_rows ,</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>_xlfn.CONCAT( "insert into ", A3,  " ( ",E3," ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;")</f>
+        <v>insert into NIK.DPF   ( EMPID ,
+NAME  ,
+EMAIL ,
+NUMBER,
+AGE    ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="13" t="str">
+        <f t="shared" ref="F3:F7" si="1">CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", A3, " union all "  )</f>
+        <v xml:space="preserve">select count(*)  as table2_rows  from NIK.DPF   union all </v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f>_xlfn.CONCAT( "delete from ", A3,  " where EMPID = 254 ;")</f>
+        <v>delete from NIK.DPF   where EMPID = 254 ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <v>65535</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.EMPL1  ) as table3_rows ,</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>_xlfn.CONCAT( "insert into ", A4,  " ( ",E4," ) values (  'test' , 5555); ")</f>
+        <v xml:space="preserve">insert into NIK.EMPL1  ( NAME  , 
+SALARY  ) values (  'test' , 5555); </v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">select count(*)  as table3_rows  from NIK.EMPL1  union all </v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f>_xlfn.CONCAT( "delete from ", A4,  " where name = 'test' ;")</f>
+        <v>delete from NIK.EMPL1  where name = 'test' ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.EMPL2  ) as table4_rows ,</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">select count(*)  as table4_rows  from NIK.EMPL2  union all </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8">
+        <v>500</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.EMPL3  ) as table5_rows ,</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">select count(*)  as table5_rows  from NIK.EMPL3  union all </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8">
+        <v>500</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>( select count(*) from ADM.EMPPF  ) as table6_rows ,</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">select count(*)  as table6_rows  from NIK.EMPPF  union all </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" t="str">
+        <f>CONCATENATE("( select count(*) from ", "ADM.", RIGHT(A8,LEN(A8)-FIND(".",A8)), " ) as table",ROW()-1,"_rows " )</f>
+        <v xml:space="preserve">( select count(*) from ADM.EMPS ) as table7_rows </v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f>CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", A8)</f>
+        <v>select count(*)  as table7_rows  from NIK.EMPS</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="12" t="str">
+        <f>_xlfn.CONCAT("select ", C2:C10 )</f>
+        <v xml:space="preserve">select ( select count(*) from ADM.CPCUST ) as table1_rows ,( select count(*) from ADM.DPF   ) as table2_rows ,( select count(*) from ADM.EMPL1  ) as table3_rows ,( select count(*) from ADM.EMPL2  ) as table4_rows ,( select count(*) from ADM.EMPL3  ) as table5_rows ,( select count(*) from ADM.EMPPF  ) as table6_rows ,( select count(*) from ADM.EMPS ) as table7_rows </v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>_xlfn.CONCAT(D2:D10)</f>
+        <v xml:space="preserve">insert into NIK.CPCUST ( CNUMBER ,
+CNAME  ,
+EMAIL  ) values ( 254 , 'test' , 'test@123.com'); insert into NIK.DPF   ( EMPID ,
+NAME  ,
+EMAIL ,
+NUMBER,
+AGE    ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;insert into NIK.EMPL1  ( NAME  , 
+SALARY  ) values (  'test' , 5555); </v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f>_xlfn.CONCAT( F2:F10 )</f>
+        <v>select count(*)  as table1_rows  from NIK.CPCUST union all select count(*)  as table2_rows  from NIK.DPF   union all select count(*)  as table3_rows  from NIK.EMPL1  union all select count(*)  as table4_rows  from NIK.EMPL2  union all select count(*)  as table5_rows  from NIK.EMPL3  union all select count(*)  as table6_rows  from NIK.EMPPF  union all select count(*)  as table7_rows  from NIK.EMPS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="288" x14ac:dyDescent="0.3">
+      <c r="D12" s="13" t="str">
+        <f>_xlfn.CONCAT(D11,D11)</f>
+        <v xml:space="preserve">insert into NIK.CPCUST ( CNUMBER ,
+CNAME  ,
+EMAIL  ) values ( 254 , 'test' , 'test@123.com'); insert into NIK.DPF   ( EMPID ,
+NAME  ,
+EMAIL ,
+NUMBER,
+AGE    ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;insert into NIK.EMPL1  ( NAME  , 
+SALARY  ) values (  'test' , 5555); insert into NIK.CPCUST ( CNUMBER ,
+CNAME  ,
+EMAIL  ) values ( 254 , 'test' , 'test@123.com'); insert into NIK.DPF   ( EMPID ,
+NAME  ,
+EMAIL ,
+NUMBER,
+AGE    ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;insert into NIK.EMPL1  ( NAME  , 
+SALARY  ) values (  'test' , 5555); </v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Release Documents/Commands sheet.xlsx
+++ b/Release Documents/Commands sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitKachhwaha\Desktop\adm_client\Release Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7223432-4826-425A-85D4-E7B5C1D11EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7787030-6499-4D1B-B062-9482C0E317A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheat Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Project</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">ADM is Data Migration Project.                        </t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Set up: N/A                                       we can verify your data and get test report from application it self.  by selecting option 5) Result</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>A table which not present at As400</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>A93COM.F92200066</t>
@@ -224,6 +218,18 @@
   </si>
   <si>
     <t>count Row Query - postgres</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>C:/Users/MohitKachhwaha/Desktop/adm_client/ADM-v1.0.jar</t>
+  </si>
+  <si>
+    <t>C:/Users/MohitKachhwaha/Desktop/adm_client/configuration/dev.properties</t>
   </si>
 </sst>
 </file>
@@ -511,6 +517,63 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -522,63 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,58 +885,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -957,327 +963,477 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="34" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F8, " ", E8)</f>
         <v>java -jar -Dspring.config.location=&lt;configuration path with application.property&gt; &lt;jar path with jar Name&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="27"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="28"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="E21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="25">
+        <v>8080</v>
+      </c>
+      <c r="H21" s="34" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F21," ", E21)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.1.jar</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="D34" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="25">
         <v>8080</v>
       </c>
-      <c r="H21" s="26" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=",F21," ", E21)</f>
-        <v>java -jar -Dspring.config.location=/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.1.jar</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F34" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="H34" s="34" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F34," ", E34)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,C:/Users/MohitKachhwaha/Desktop/adm_client/configuration/dev.properties C:/Users/MohitKachhwaha/Desktop/adm_client/ADM-v1.0.jar</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B33"/>
-    <mergeCell ref="E21:E33"/>
-    <mergeCell ref="F21:F33"/>
-    <mergeCell ref="G21:G33"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C20"/>
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
+  <mergeCells count="29">
+    <mergeCell ref="F34:F46"/>
+    <mergeCell ref="G34:G46"/>
+    <mergeCell ref="H34:H46"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="E34:E46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="G8:G20"/>
     <mergeCell ref="H8:H20"/>
     <mergeCell ref="H21:H33"/>
     <mergeCell ref="C21:C33"/>
     <mergeCell ref="D21:D33"/>
     <mergeCell ref="F8:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C20"/>
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B33"/>
+    <mergeCell ref="E21:E33"/>
+    <mergeCell ref="F21:F33"/>
+    <mergeCell ref="G21:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1301,18 +1457,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <v>37</v>
@@ -1324,7 +1480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7">
         <v>37</v>
@@ -1336,7 +1492,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8">
         <v>65535</v>
@@ -1348,7 +1504,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>-1</v>
@@ -1360,7 +1516,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8">
         <v>500</v>
@@ -1372,7 +1528,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8">
         <v>500</v>
@@ -1385,15 +1541,15 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1402,10 +1558,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1414,7 +1570,7 @@
     </row>
     <row r="11" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="12" t="str">
         <f>_xlfn.CONCAT("select ", C2:C10 )</f>
@@ -1431,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCAE70E-9451-41DC-B20B-1F3295A4C989}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1448,34 +1604,34 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7">
         <v>37</v>
@@ -1491,7 +1647,7 @@
 EMAIL  ) values ( 254 , 'test' , 'test@123.com'); </v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="13" t="str">
         <f>CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", A2, " union all "  )</f>
@@ -1502,12 +1658,12 @@
         <v>delete from NIK.CPCUST where Cnumber = 254 ;</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7">
         <v>37</v>
@@ -1525,7 +1681,7 @@
 AGE    ) values ( 254 , 'test' , 'test@123.com', 4445557771, 23) ;</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="13" t="str">
         <f t="shared" ref="F3:F7" si="1">CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", A3, " union all "  )</f>
@@ -1538,7 +1694,7 @@
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8">
         <v>65535</v>
@@ -1553,7 +1709,7 @@
 SALARY  ) values (  'test' , 5555); </v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1566,7 +1722,7 @@
     </row>
     <row r="5" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8">
         <v>-1</v>
@@ -1576,7 +1732,7 @@
         <v>( select count(*) from ADM.EMPL2  ) as table4_rows ,</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1585,7 +1741,7 @@
     </row>
     <row r="6" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
         <v>500</v>
@@ -1601,7 +1757,7 @@
     </row>
     <row r="7" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8">
         <v>500</v>
@@ -1617,7 +1773,7 @@
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" t="str">
@@ -1629,7 +1785,7 @@
         <v>select count(*)  as table7_rows  from NIK.EMPS</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1642,7 +1798,7 @@
     </row>
     <row r="11" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="12" t="str">
@@ -1661,7 +1817,7 @@
 SALARY  ) values (  'test' , 5555); </v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="13" t="str">
         <f>_xlfn.CONCAT( F2:F10 )</f>
@@ -1688,27 +1844,27 @@
 SALARY  ) values (  'test' , 5555); </v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Release Documents/Commands sheet.xlsx
+++ b/Release Documents/Commands sheet.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitKachhwaha\Desktop\project\ADM\ADM_Git\ADM\Release Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A259DC5-3AAE-4562-978F-980308BBAE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F888B8BA-AB76-4C43-99B6-E187A3D98AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cheat Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Demo - 137 tables" sheetId="7" r:id="rId2"/>
-    <sheet name="Demo 1 - test tables" sheetId="2" r:id="rId3"/>
-    <sheet name="Demo 2 - test tables" sheetId="4" r:id="rId4"/>
+    <sheet name="CONSOLE - Cheat Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="CRON - Cheat sheet" sheetId="8" r:id="rId2"/>
+    <sheet name="Demo - 137 tables" sheetId="7" r:id="rId3"/>
+    <sheet name="Demo 1 - test tables" sheetId="2" r:id="rId4"/>
+    <sheet name="Demo 2 - test tables" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Demo - 137 tables'!$A$1:$E$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Demo - 137 tables'!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="239">
   <si>
     <t>Project</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">ADM is Data Migration Project.                        </t>
-  </si>
-  <si>
-    <t>Set up: N/A                                       we can verify your data and get test report from application it self.  by selecting option 5) Result</t>
   </si>
   <si>
     <t>create your command</t>
@@ -814,6 +812,54 @@
   </si>
   <si>
     <t>PASS - 14:21 - 14:26       5min</t>
+  </si>
+  <si>
+    <t>Set up: N/A                                       we can verify your data and get test report from application it self.  by selecting option 4)             Current Status Summery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt MIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt SYN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt HLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt EFB</t>
+  </si>
+  <si>
+    <t>PERFORM COMPLETE MIGRATION</t>
+  </si>
+  <si>
+    <t>RE-EXECUTE FAILDED  BATCHES</t>
+  </si>
+  <si>
+    <t>CURRENT STATUS SUMMERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt STATUS</t>
+  </si>
+  <si>
+    <t>CONFIGURATION HELP</t>
+  </si>
+  <si>
+    <t>PERFORM       SYNC</t>
+  </si>
+  <si>
+    <t>S.NO.</t>
+  </si>
+  <si>
+    <t>Input File Path</t>
+  </si>
+  <si>
+    <t>Option Code</t>
+  </si>
+  <si>
+    <t>Menu Option</t>
+  </si>
+  <si>
+    <t>INPUT FILE NOT NEEDED</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1186,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,13 +1269,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,6 +1281,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,24 +1328,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1292,11 +1343,24 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
@@ -1314,6 +1378,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169318</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C192B2A-0564-4E2D-84A5-E7DABF9CECF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16154399" y="2960915"/>
+          <a:ext cx="4229690" cy="3753374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,7 +1695,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,45 +1703,45 @@
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" customWidth="1"/>
     <col min="6" max="6" width="34.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="A1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4"/>
       <c r="F4"/>
     </row>
@@ -1654,23 +1767,23 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="54" t="s">
+      <c r="F8" s="46" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>11</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F8, " ", E8)</f>
@@ -1678,263 +1791,263 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="35"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="35"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="36"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>15</v>
+      <c r="D21" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F21," ", E21)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="38"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+    <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+    <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="38"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+    <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+    <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>219</v>
+      <c r="D34" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>218</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F34," ", E34)</f>
@@ -1942,115 +2055,124 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="F34:F46"/>
+    <mergeCell ref="G34:G46"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="E34:E46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G8:G20"/>
     <mergeCell ref="G21:G33"/>
@@ -2067,15 +2189,6 @@
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:C20"/>
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="F34:F46"/>
-    <mergeCell ref="G34:G46"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="C34:C46"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="E34:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2083,6 +2196,638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF646B5-44BD-43F0-ABCA-EEE1F484A686}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="6" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="68.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E2," ", D2,F2,G2)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt MIG</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>2</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E11," ", D11,F11,G11)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt SYN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
+        <v>3</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E20," ", D20,F20,G20)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt EFB</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49">
+        <v>4</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E29," ", D29,F29,G29)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt STATUS</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>5</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E38," ", D38,F38)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt HLP</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="53"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="H38:H46"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="B11:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EA466E-4D5F-4CF6-94E7-ACEE06516CE7}">
   <dimension ref="A1:J139"/>
   <sheetViews>
@@ -2102,44 +2847,44 @@
     <col min="10" max="10" width="44.109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C33" si="0">_xlfn.CONCAT(A2,".",B2)</f>
@@ -2152,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="3"/>
@@ -2167,10 +2912,10 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2183,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="3"/>
@@ -2198,10 +2943,10 @@
     </row>
     <row r="4" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2211,16 +2956,16 @@
         <v>472</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>210</v>
+      <c r="H4" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2233,10 +2978,10 @@
     </row>
     <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2249,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="3"/>
@@ -2264,10 +3009,10 @@
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2280,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="3"/>
@@ -2295,10 +3040,10 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2311,13 +3056,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2330,10 +3075,10 @@
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2357,10 +3102,10 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2384,10 +3129,10 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2411,10 +3156,10 @@
     </row>
     <row r="11" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2438,10 +3183,10 @@
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2465,10 +3210,10 @@
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2492,10 +3237,10 @@
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2519,10 +3264,10 @@
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2546,10 +3291,10 @@
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2573,10 +3318,10 @@
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2600,10 +3345,10 @@
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2627,10 +3372,10 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2654,10 +3399,10 @@
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2681,10 +3426,10 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2708,10 +3453,10 @@
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2735,10 +3480,10 @@
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2762,10 +3507,10 @@
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2789,10 +3534,10 @@
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2816,10 +3561,10 @@
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2843,10 +3588,10 @@
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2870,10 +3615,10 @@
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2897,10 +3642,10 @@
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2924,10 +3669,10 @@
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2951,10 +3696,10 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2978,10 +3723,10 @@
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3005,10 +3750,10 @@
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3032,10 +3777,10 @@
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(A34,".",B34)</f>
@@ -3059,10 +3804,10 @@
     </row>
     <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3086,10 +3831,10 @@
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3113,10 +3858,10 @@
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3140,10 +3885,10 @@
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3167,10 +3912,10 @@
     </row>
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3194,10 +3939,10 @@
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3221,10 +3966,10 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3248,10 +3993,10 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3275,10 +4020,10 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3302,10 +4047,10 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3329,10 +4074,10 @@
     </row>
     <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3356,10 +4101,10 @@
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3383,10 +4128,10 @@
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3410,10 +4155,10 @@
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3437,10 +4182,10 @@
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3464,10 +4209,10 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3491,10 +4236,10 @@
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3518,10 +4263,10 @@
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3545,10 +4290,10 @@
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3572,10 +4317,10 @@
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3599,10 +4344,10 @@
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3626,10 +4371,10 @@
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3653,10 +4398,10 @@
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3680,10 +4425,10 @@
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3707,10 +4452,10 @@
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3734,10 +4479,10 @@
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3761,10 +4506,10 @@
     </row>
     <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3788,10 +4533,10 @@
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3815,10 +4560,10 @@
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3842,10 +4587,10 @@
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3869,10 +4614,10 @@
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3896,10 +4641,10 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" ref="C66:C97" si="4">_xlfn.CONCAT(A66,".",B66)</f>
@@ -3923,10 +4668,10 @@
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3950,10 +4695,10 @@
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="3" t="str">
         <f t="shared" si="4"/>
@@ -3977,10 +4722,10 @@
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4004,10 +4749,10 @@
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4031,10 +4776,10 @@
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4058,10 +4803,10 @@
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4085,10 +4830,10 @@
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4112,10 +4857,10 @@
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4139,10 +4884,10 @@
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4166,10 +4911,10 @@
     </row>
     <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4193,10 +4938,10 @@
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4220,10 +4965,10 @@
     </row>
     <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4247,10 +4992,10 @@
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C79" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4274,10 +5019,10 @@
     </row>
     <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C80" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4301,10 +5046,10 @@
     </row>
     <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4328,10 +5073,10 @@
     </row>
     <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4355,10 +5100,10 @@
     </row>
     <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4382,10 +5127,10 @@
     </row>
     <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4409,10 +5154,10 @@
     </row>
     <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4436,10 +5181,10 @@
     </row>
     <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4463,10 +5208,10 @@
     </row>
     <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4490,10 +5235,10 @@
     </row>
     <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4517,10 +5262,10 @@
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4544,10 +5289,10 @@
     </row>
     <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4571,10 +5316,10 @@
     </row>
     <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4598,10 +5343,10 @@
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4625,10 +5370,10 @@
     </row>
     <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4652,10 +5397,10 @@
     </row>
     <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4679,10 +5424,10 @@
     </row>
     <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4706,10 +5451,10 @@
     </row>
     <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4733,10 +5478,10 @@
     </row>
     <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="4"/>
@@ -4760,10 +5505,10 @@
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" ref="C98:C129" si="7">_xlfn.CONCAT(A98,".",B98)</f>
@@ -4787,10 +5532,10 @@
     </row>
     <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4814,10 +5559,10 @@
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4841,10 +5586,10 @@
     </row>
     <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4868,10 +5613,10 @@
     </row>
     <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4895,10 +5640,10 @@
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4922,10 +5667,10 @@
     </row>
     <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4949,10 +5694,10 @@
     </row>
     <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4976,10 +5721,10 @@
     </row>
     <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C106" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5003,10 +5748,10 @@
     </row>
     <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C107" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5030,10 +5775,10 @@
     </row>
     <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5057,10 +5802,10 @@
     </row>
     <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5084,10 +5829,10 @@
     </row>
     <row r="110" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5111,10 +5856,10 @@
     </row>
     <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5138,10 +5883,10 @@
     </row>
     <row r="112" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5165,10 +5910,10 @@
     </row>
     <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5192,10 +5937,10 @@
     </row>
     <row r="114" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5219,10 +5964,10 @@
     </row>
     <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5246,10 +5991,10 @@
     </row>
     <row r="116" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5273,10 +6018,10 @@
     </row>
     <row r="117" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5300,10 +6045,10 @@
     </row>
     <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5327,10 +6072,10 @@
     </row>
     <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5354,10 +6099,10 @@
     </row>
     <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5381,10 +6126,10 @@
     </row>
     <row r="121" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5408,10 +6153,10 @@
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5435,10 +6180,10 @@
     </row>
     <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5462,10 +6207,10 @@
     </row>
     <row r="124" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5489,10 +6234,10 @@
     </row>
     <row r="125" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5516,10 +6261,10 @@
     </row>
     <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5543,10 +6288,10 @@
     </row>
     <row r="127" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5570,10 +6315,10 @@
     </row>
     <row r="128" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5597,10 +6342,10 @@
     </row>
     <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5624,10 +6369,10 @@
     </row>
     <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" ref="C130:C138" si="8">_xlfn.CONCAT(A130,".",B130)</f>
@@ -5651,10 +6396,10 @@
     </row>
     <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5678,10 +6423,10 @@
     </row>
     <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5705,10 +6450,10 @@
     </row>
     <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C133" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5732,10 +6477,10 @@
     </row>
     <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5759,10 +6504,10 @@
     </row>
     <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C135" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5786,10 +6531,10 @@
     </row>
     <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C136" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5813,10 +6558,10 @@
     </row>
     <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C137" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5840,10 +6585,10 @@
     </row>
     <row r="138" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" s="3" t="str">
         <f t="shared" si="8"/>
@@ -5866,7 +6611,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="59">
+      <c r="D139" s="35">
         <f>SUBTOTAL(9,D2:D138)</f>
         <v>21520925</v>
       </c>
@@ -5890,7 +6635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3915056-704F-4C90-96BA-CAC16306B337}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5907,18 +6652,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -5930,7 +6675,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <v>37</v>
@@ -5942,7 +6687,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>65535</v>
@@ -5954,7 +6699,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>-1</v>
@@ -5966,7 +6711,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>500</v>
@@ -5978,7 +6723,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>500</v>
@@ -5991,15 +6736,15 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -6008,10 +6753,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6020,7 +6765,7 @@
     </row>
     <row r="11" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>_xlfn.CONCAT("select ", C2:C10 )</f>
@@ -6033,11 +6778,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6125561C-8135-4B7F-A12D-136553DBCF13}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -6058,48 +6803,48 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -6108,13 +6853,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I8" si="0">CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", C2, " union all "  )</f>
@@ -6125,18 +6870,18 @@
         <v xml:space="preserve">select count(*) as table1_rows  from ADM.F55250 union all </v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="17">
         <v>63</v>
@@ -6145,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6162,18 +6907,18 @@
         <v xml:space="preserve">select count(*) as table2_rows  from ADM.F55XTML union all </v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="17">
         <v>67094</v>
@@ -6182,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="13" t="str">
@@ -6197,18 +6942,18 @@
         <v xml:space="preserve">select count(*) as table3_rows  from ADM.F9200 union all </v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="17">
         <v>31529</v>
@@ -6217,10 +6962,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="13" t="str">
@@ -6232,18 +6977,18 @@
         <v xml:space="preserve">select count(*) as table4_rows  from ADM.F0005 union all </v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="17">
         <v>374</v>
@@ -6252,10 +6997,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13" t="str">
@@ -6267,18 +7012,18 @@
         <v xml:space="preserve">select count(*) as table5_rows  from ADM.F55EM1 union all </v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="17">
         <v>59</v>
@@ -6287,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6304,30 +7049,30 @@
         <v xml:space="preserve">select count(*) as table6_rows  from ADM.F55EM2 union all </v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="13" t="str">
@@ -6339,30 +7084,30 @@
         <v xml:space="preserve">select count(*) as table7_rows  from ADM.F9200 union all </v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="13" t="str">
@@ -6374,12 +7119,12 @@
         <v>select count(*) as table8_rows  from ADM.F922000</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="20">
         <f>SUM(D2:D9)</f>
@@ -6387,13 +7132,13 @@
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="24" t="str">
         <f>_xlfn.CONCAT( I2:I9 )</f>
@@ -6407,71 +7152,71 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="L15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>_xlfn.CONCAT(A16,".",B16)</f>
@@ -6484,13 +7229,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I16" s="13" t="str">
         <f t="shared" ref="I16:I24" si="2">CONCATENATE("select count(*)  as table",ROW()-1,"_rows  from ", C16, " union all "  )</f>
@@ -6501,15 +7246,15 @@
         <v xml:space="preserve">select count(*) as table15_rows  from ADM.F5504WO union all </v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>_xlfn.CONCAT(A17,".",B17)</f>
@@ -6522,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="13" t="str">
@@ -6537,18 +7282,18 @@
         <v xml:space="preserve">select count(*) as table16_rows  from ADM.F5505 union all </v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="17">
         <v>205278</v>
@@ -6557,13 +7302,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" s="13" t="str">
         <f t="shared" si="2"/>
@@ -6574,18 +7319,18 @@
         <v xml:space="preserve">select count(*) as table17_rows  from ADM.F9620 union all </v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="17">
         <v>65846</v>
@@ -6594,10 +7339,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="13" t="str">
@@ -6609,15 +7354,15 @@
         <v xml:space="preserve">select count(*) as table18_rows  from ADM.F98163 union all </v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" ref="C20:C25" si="4">_xlfn.CONCAT(A20,".",B20)</f>
@@ -6630,10 +7375,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="13" t="str">
@@ -6645,15 +7390,15 @@
         <v xml:space="preserve">select count(*) as table19_rows  from ADM.F55053 union all </v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6666,13 +7411,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I21" s="13" t="str">
         <f t="shared" si="2"/>
@@ -6683,15 +7428,15 @@
         <v xml:space="preserve">select count(*) as table20_rows  from ADM.F55054 union all </v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6704,10 +7449,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="13" t="str">
@@ -6719,15 +7464,15 @@
         <v xml:space="preserve">select count(*) as table21_rows  from ADM.F0301    union all </v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6740,10 +7485,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="13" t="str">
@@ -6755,15 +7500,15 @@
         <v xml:space="preserve">select count(*) as table22_rows  from ADM.F00163 union all </v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6776,10 +7521,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="13" t="str">
@@ -6791,15 +7536,15 @@
         <v xml:space="preserve">select count(*) as table23_rows  from ADM.F0003 union all </v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6812,10 +7557,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="13" t="str">
@@ -6827,12 +7572,12 @@
         <v>select count(*) as table24_rows  from ADM.F0101</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="20">
         <f>SUM(D16:D25)</f>
@@ -6840,7 +7585,7 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -6855,7 +7600,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D27" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -6866,13 +7611,13 @@
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="22">
         <v>3011361</v>
@@ -6881,7 +7626,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>

--- a/Release Documents/Commands sheet.xlsx
+++ b/Release Documents/Commands sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitKachhwaha\Desktop\project\ADM\ADM_Git\ADM\Release Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F888B8BA-AB76-4C43-99B6-E187A3D98AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A39312-401C-46E8-87E4-D93A22905458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,27 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1302,12 +1281,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,19 +1325,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,15 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1695,7 +1695,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,38 +1710,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4"/>
       <c r="F4"/>
     </row>
@@ -1767,412 +1767,403 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="37" t="str">
+      <c r="G8" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F8, " ", E8)</f>
         <v>java -jar -Dspring.config.location=&lt;configuration path with application.property&gt; &lt;jar path with jar Name&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="38"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="38"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="38"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="38"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="38"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="38"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="38"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="38"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="38"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="38"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="39"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="37" t="str">
+      <c r="G21" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F21," ", E21)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="38"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="38"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="38"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="38"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="38"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="38"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="38"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="38"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="38"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="38"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="38"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="39"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="37" t="str">
+      <c r="G34" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F34," ", E34)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties,/home/itc02/Desktop/admdemo/demo/configuration/test.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="38"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="38"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="38"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="38"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="38"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="38"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="38"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="38"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="38"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="38"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="38"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="39"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="F34:F46"/>
-    <mergeCell ref="G34:G46"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="C34:C46"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="E34:E46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G8:G20"/>
     <mergeCell ref="G21:G33"/>
@@ -2189,6 +2180,15 @@
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:C20"/>
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="F34:F46"/>
+    <mergeCell ref="G34:G46"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="E34:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2199,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF646B5-44BD-43F0-ABCA-EEE1F484A686}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -2240,539 +2240,539 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="37" t="str">
+      <c r="G2" s="60"/>
+      <c r="H2" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E2," ", D2,F2,G2)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt MIG</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="39"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>2</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="37" t="str">
+      <c r="G11" s="60"/>
+      <c r="H11" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E11," ", D11,F11,G11)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt SYN</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="53" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="38"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>3</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="37" t="str">
+      <c r="G20" s="60"/>
+      <c r="H20" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E20," ", D20,F20,G20)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt EFB</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="38"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="38"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="38"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="38"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="53" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="38"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="39"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="47"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49">
+      <c r="A29" s="48">
         <v>4</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="37" t="str">
+      <c r="G29" s="60"/>
+      <c r="H29" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E29," ", D29,F29,G29)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt STATUS</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="38"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="38"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="53" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="38"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="38"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="39"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49">
+      <c r="A38" s="48">
         <v>5</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="H38" s="37" t="str">
+      <c r="H38" s="45" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E38," ", D38,F38)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt HLP</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="38"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="38"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="38"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="38"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="38"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="53" t="s">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="38"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="38"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="39"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="47"/>
     </row>
     <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2780,16 +2780,20 @@
     <row r="50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="H38:H46"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="B11:B19"/>
     <mergeCell ref="G38:G46"/>
     <mergeCell ref="E20:E28"/>
     <mergeCell ref="A2:A10"/>
@@ -2806,20 +2810,16 @@
     <mergeCell ref="D20:D28"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="E2:E10"/>
-    <mergeCell ref="H38:H46"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Release Documents/Commands sheet.xlsx
+++ b/Release Documents/Commands sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohitKachhwaha\Desktop\project\ADM\ADM_Git\ADM\Release Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A39312-401C-46E8-87E4-D93A22905458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934EEDC0-3075-4777-80F5-2FE85C0D423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="243">
   <si>
     <t>Project</t>
   </si>
@@ -817,9 +817,6 @@
     <t>Set up: N/A                                       we can verify your data and get test report from application it self.  by selecting option 4)             Current Status Summery</t>
   </si>
   <si>
-    <t xml:space="preserve"> -opt MIG</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -opt SYN</t>
   </si>
   <si>
@@ -838,9 +835,6 @@
     <t>CURRENT STATUS SUMMERY</t>
   </si>
   <si>
-    <t xml:space="preserve"> -opt STATUS</t>
-  </si>
-  <si>
     <t>CONFIGURATION HELP</t>
   </si>
   <si>
@@ -860,6 +854,24 @@
   </si>
   <si>
     <t>INPUT FILE NOT NEEDED</t>
+  </si>
+  <si>
+    <t>/home/itc02/Desktop/admdemo/demo/1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt MIG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt SYN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt EFB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt STATUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -opt HLP </t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1283,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1281,30 +1314,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,31 +1340,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,6 +1363,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1710,38 +1722,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4"/>
       <c r="F4"/>
     </row>
@@ -1767,403 +1779,412 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="45" t="str">
+      <c r="G8" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=",F8, " ", E8)</f>
         <v>java -jar -Dspring.config.location=&lt;configuration path with application.property&gt; &lt;jar path with jar Name&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="46"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="46"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="46"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="46"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="46"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="46"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="46"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="46"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="45" t="str">
+      <c r="G21" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F21," ", E21)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="46"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="46"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="46"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="46"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="46"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="46"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="46"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="46"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="46"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="46"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="46"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="47"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="45" t="str">
+      <c r="G34" s="37" t="str">
         <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",F34," ", E34)</f>
         <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties,/home/itc02/Desktop/admdemo/demo/configuration/test.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="46"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="46"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="46"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="46"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="46"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="46"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="46"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="46"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="46"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="46"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="46"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="47"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="F34:F46"/>
+    <mergeCell ref="G34:G46"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="E34:E46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G8:G20"/>
     <mergeCell ref="G21:G33"/>
@@ -2180,15 +2201,6 @@
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:C20"/>
-    <mergeCell ref="D8:D20"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="F34:F46"/>
-    <mergeCell ref="G34:G46"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="C34:C46"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="E34:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2199,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF646B5-44BD-43F0-ABCA-EEE1F484A686}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,10 +2227,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -2230,549 +2242,557 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E2," ", D2,F2,G2)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt MIG /home/itc02/Desktop/admdemo/demo/1.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>2</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E11," ", D11,F11,G11)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt SYN /home/itc02/Desktop/admdemo/demo/1.txt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
+        <v>3</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D20" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="45" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E2," ", D2,F2,G2)</f>
-        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt MIG</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
-        <v>2</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="51" t="s">
+      <c r="F20" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E20," ", D20,F20,G20)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt EFB /home/itc02/Desktop/admdemo/demo/1.txt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49">
+        <v>4</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E29" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F29" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E29," ", D29,F29,G29)</f>
+        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt STATUS /home/itc02/Desktop/admdemo/demo/1.txt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="45" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E11," ", D11,F11,G11)</f>
-        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt SYN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="52" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>5</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="37" t="str">
+        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E38," ", D38,F38)</f>
+        <v xml:space="preserve">java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt HLP </v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48">
-        <v>3</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="45" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E20," ", D20,F20,G20)</f>
-        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt EFB</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48">
-        <v>4</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="45" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E29," ", D29,F29,G29)</f>
-        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt STATUS</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48">
-        <v>5</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="H38" s="45" t="str">
-        <f>CONCATENATE("java -jar -Dspring.config.location=classpath:/,",E38," ", D38,F38)</f>
-        <v>java -jar -Dspring.config.location=classpath:/,/home/itc02/Desktop/admdemo/demo/configuration/application.properties /home/itc02/Desktop/admdemo/demo/ADM-v1.0.jar -opt HLP</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="46"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="46"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="47"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2780,6 +2800,30 @@
     <row r="50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="E11:E19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="H38:H46"/>
     <mergeCell ref="H29:H37"/>
     <mergeCell ref="B20:B28"/>
@@ -2796,30 +2840,6 @@
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="G38:G46"/>
     <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="E11:E19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
